--- a/workbooks/1-2-advanced-excel-cleaning.xlsx
+++ b/workbooks/1-2-advanced-excel-cleaning.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\intermediate-python-in-excel-course\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51DF110-81BA-40E2-8286-6513B937FE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD444CD-5FE2-424F-B640-6A4D7F318835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{642F29D6-3A65-4348-A7BA-9C3608806CF8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{642F29D6-3A65-4348-A7BA-9C3608806CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,17 +37,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>https://chatgpt.com/c/682ba57d-bfcc-8001-9252-815656237a11</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Order Date</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>Widget</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>Gadget</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>2024.01.03</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>Gizmo</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>eight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -74,8 +153,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5272740-AB8E-4245-B205-196FDCC04AE1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <sheetData>
@@ -424,4 +521,208 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF47B153-ADC2-48D3-AA98-D971339D0A4E}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="5" max="5" width="10.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>